--- a/STAC/data/vocab.xlsx
+++ b/STAC/data/vocab.xlsx
@@ -385,7 +385,7 @@
     <t>float32</t>
   </si>
   <si>
-    <t>|S##</t>
+    <t>string</t>
   </si>
   <si>
     <t>int8</t>
@@ -397,7 +397,7 @@
     <t>['esl_gwl']</t>
   </si>
   <si>
-    <t>['shore_mon_fut', 'shore_mon', 'shore_mon_hr']</t>
+    <t>['shore_mon_hr', 'shore_mon_fut', 'shore_mon']</t>
   </si>
   <si>
     <t>['shore_mon_hr']</t>
@@ -406,16 +406,16 @@
     <t>['shore_mon']</t>
   </si>
   <si>
-    <t>['world_gdp', 'shore_mon_fut', 'shore_mon_drivers', 'world_pop', 'shore_mon', 'sed_class']</t>
-  </si>
-  <si>
-    <t>['shore_mon_drivers', 'shore_mon_fut', 'shore_mon']</t>
-  </si>
-  <si>
-    <t>['shore_mon_drivers', 'shore_mon_hr']</t>
-  </si>
-  <si>
-    <t>['world_gdp', 'shore_mon_fut', 'shore_mon_drivers', 'world_pop', 'shore_mon', 'shore_mon_hr', 'sed_class']</t>
+    <t>['sed_class', 'shore_mon', 'world_pop', 'shore_mon_drivers', 'shore_mon_fut', 'world_gdp']</t>
+  </si>
+  <si>
+    <t>['shore_mon_fut', 'shore_mon_drivers', 'shore_mon']</t>
+  </si>
+  <si>
+    <t>['shore_mon_hr', 'shore_mon_drivers']</t>
+  </si>
+  <si>
+    <t>['sed_class', 'shore_mon_hr', 'shore_mon', 'world_pop', 'shore_mon_drivers', 'shore_mon_fut', 'world_gdp']</t>
   </si>
   <si>
     <t>['shore_mon_drivers']</t>
@@ -427,7 +427,7 @@
     <t>['shore_mon_fut']</t>
   </si>
   <si>
-    <t>['shore_mon', 'shore_mon_hr']</t>
+    <t>['shore_mon_hr', 'shore_mon']</t>
   </si>
   <si>
     <t>['world_pop']</t>
@@ -502,10 +502,10 @@
     <t>[21.0]</t>
   </si>
   <si>
-    <t>[b'LINESTRING (47.885022 29.319149, 47.879413 29.33403)', b'LINESTRING (-74.382468591 -50.3791437735, -74.3917820288 -50.3889403594)', b'LINESTRING (-71.624166 10.990024, -71.60742 10.996413)', b'LINESTRING (-74.3863095545 -50.3776589451, -74.39562299239999 -50.3874558377)', b'LINESTRING (-72.98252423386046 -54.45955389684386, -72.99521062694167 -54.448286932134025)']</t>
-  </si>
-  <si>
-    <t>[b'BOX_028_183_0', b'BOX_028_000_0', b'BOX_145_168_39', b'BOX_117_067_110', b'BOX_028_183_1']</t>
+    <t>[b'LINESTRING (-72.98252423386046 -54.45955389684386, -72.99521062694167 -54.448286932134025)', b'LINESTRING (-74.3863095545 -50.3776589451, -74.39562299239999 -50.3874558377)', b'LINESTRING (-71.624166 10.990024, -71.60742 10.996413)', b'LINESTRING (47.885022 29.319149, 47.879413 29.33403)', b'LINESTRING (-74.382468591 -50.3791437735, -74.3917820288 -50.3889403594)']</t>
+  </si>
+  <si>
+    <t>[b'BOX_028_183_1', b'BOX_028_183_0', b'BOX_028_000_0', b'BOX_117_067_110', b'BOX_145_168_39']</t>
   </si>
   <si>
     <t>[3.436772245547764, 6.9373716882311545, 14.088575593402023]</t>

--- a/STAC/data/vocab.xlsx
+++ b/STAC/data/vocab.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\white_rn\Documents\GitHub\global-coastal-atlas\STAC\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7E1E6D-6F11-4E5E-8703-2D1CCA8FEB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -556,8 +562,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +626,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -666,7 +680,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -698,9 +712,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -732,6 +764,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -907,14 +957,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="98.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,7 +1001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -969,7 +1027,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -995,7 +1053,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1021,7 +1079,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1044,7 +1102,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1070,7 +1128,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1093,7 +1151,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1116,7 +1174,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1139,7 +1197,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1162,7 +1220,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1188,7 +1246,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1214,7 +1272,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1237,7 +1295,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1263,7 +1321,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1292,7 +1350,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1376,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1402,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1373,7 +1431,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1399,7 +1457,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1428,7 +1486,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1451,7 +1509,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1474,7 +1532,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1497,7 +1555,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1523,7 +1581,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1549,7 +1607,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1575,7 +1633,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1598,7 +1656,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1621,7 +1679,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1650,7 +1708,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1676,7 +1734,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1702,7 +1760,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1728,7 +1786,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1751,7 +1809,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1780,7 +1838,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1803,7 +1861,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1826,7 +1884,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1849,7 +1907,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1872,7 +1930,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1895,7 +1953,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1918,7 +1976,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1941,7 +1999,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1964,7 +2022,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1987,7 +2045,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -2010,7 +2068,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -2036,7 +2094,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2059,7 +2117,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2082,7 +2140,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -2108,7 +2166,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -2134,7 +2192,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -2160,7 +2218,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -2186,7 +2244,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -2212,7 +2270,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -2238,7 +2296,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -2264,7 +2322,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -2290,7 +2348,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -2313,7 +2371,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -2336,7 +2394,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>11</v>
       </c>
